--- a/seed/haciendas.xlsx
+++ b/seed/haciendas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\appnode\hackaton_galicia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\appnode\hackaton_galicia\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>Tipo</t>
   </si>
@@ -176,12 +176,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Papas, zanahorias</t>
-  </si>
-  <si>
-    <t>Maiz, papas</t>
-  </si>
-  <si>
     <t>Sistema Agricultura</t>
   </si>
   <si>
@@ -225,19 +219,67 @@
   </si>
   <si>
     <t>Uvas</t>
+  </si>
+  <si>
+    <t>frecuency</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>amount requested</t>
+  </si>
+  <si>
+    <t>numbers payment</t>
+  </si>
+  <si>
+    <t>first payment</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>12-2018</t>
+  </si>
+  <si>
+    <t>03-2019</t>
+  </si>
+  <si>
+    <t>05-2019</t>
+  </si>
+  <si>
+    <t>11-2018</t>
+  </si>
+  <si>
+    <t>01-2019</t>
+  </si>
+  <si>
+    <t>Publickey</t>
+  </si>
+  <si>
+    <t>FY6tCC2YNQSCkoFuXHnVpoB4Mhs6UCk9tcKW7HWsSmck</t>
+  </si>
+  <si>
+    <t>Maiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +329,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,122 +639,148 @@
     <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
     <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <f>A1+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f t="shared" ref="C1:AB1" si="0">B1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB1">
-        <f t="shared" si="0"/>
+      <c r="AC1">
+        <f t="shared" ref="AC1" si="1">AB1+1</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1">
+        <f t="shared" ref="AD1" si="2">AC1+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" ref="AE1" si="3">AD1+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" ref="AF1" si="4">AE1+1</f>
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" ref="AG1:AH1" si="5">AF1+1</f>
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>24</v>
@@ -776,25 +848,43 @@
         <v>27</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,6 +936,9 @@
       <c r="Q3" t="s">
         <v>37</v>
       </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
       <c r="S3" t="s">
         <v>38</v>
       </c>
@@ -856,13 +949,13 @@
         <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="W3">
         <v>201501</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y3">
         <v>200</v>
@@ -876,10 +969,26 @@
       <c r="AB3" s="3">
         <v>5833333</v>
       </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -931,6 +1040,9 @@
       <c r="Q4" t="s">
         <v>39</v>
       </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
       <c r="S4" t="s">
         <v>40</v>
       </c>
@@ -947,7 +1059,7 @@
         <v>201503</v>
       </c>
       <c r="X4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y4">
         <v>100</v>
@@ -961,10 +1073,26 @@
       <c r="AB4" s="3">
         <v>2916666</v>
       </c>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC4" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1016,6 +1144,9 @@
       <c r="Q5" t="s">
         <v>42</v>
       </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
       <c r="S5" t="s">
         <v>43</v>
       </c>
@@ -1026,13 +1157,13 @@
         <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W5">
         <v>201501</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y5">
         <v>50</v>
@@ -1046,10 +1177,26 @@
       <c r="AB5" s="3">
         <v>1458333</v>
       </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC5" s="3">
+        <v>500000</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,6 +1248,9 @@
       <c r="Q6" t="s">
         <v>44</v>
       </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
       <c r="S6" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1267,7 @@
         <v>201507</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y6">
         <v>300</v>
@@ -1131,10 +1281,26 @@
       <c r="AB6" s="3">
         <v>8750000</v>
       </c>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC6" s="4">
+        <v>4500000</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,6 +1352,9 @@
       <c r="Q7" t="s">
         <v>45</v>
       </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
       <c r="S7" t="s">
         <v>40</v>
       </c>
@@ -1196,13 +1365,13 @@
         <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W7">
         <v>201510</v>
       </c>
       <c r="X7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y7">
         <v>120</v>
@@ -1216,10 +1385,26 @@
       <c r="AB7" s="3">
         <v>864000</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,6 +1456,9 @@
       <c r="Q8" t="s">
         <v>41</v>
       </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
       <c r="S8" t="s">
         <v>38</v>
       </c>
@@ -1281,13 +1469,13 @@
         <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W8">
         <v>201510</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y8">
         <v>75</v>
@@ -1301,10 +1489,26 @@
       <c r="AB8" s="3">
         <v>540000</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC8" s="3">
+        <v>600000</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,6 +1560,9 @@
       <c r="Q9" t="s">
         <v>46</v>
       </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
       <c r="S9" t="s">
         <v>47</v>
       </c>
@@ -1366,13 +1573,13 @@
         <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W9">
         <v>201511</v>
       </c>
       <c r="X9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y9">
         <v>100</v>
@@ -1386,10 +1593,26 @@
       <c r="AB9" s="3">
         <v>720000</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC9" s="3">
+        <v>800000</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1441,6 +1664,9 @@
       <c r="Q10" t="s">
         <v>41</v>
       </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
       <c r="S10" t="s">
         <v>38</v>
       </c>
@@ -1451,13 +1677,13 @@
         <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W10">
         <v>201508</v>
       </c>
       <c r="X10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y10">
         <v>70</v>
@@ -1471,25 +1697,41 @@
       <c r="AB10" s="3">
         <v>504000</v>
       </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC10" s="3">
+        <v>700000</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="U14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="U15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="W16" s="3">
         <v>60000</v>
       </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="21:25" x14ac:dyDescent="0.25">
@@ -1500,7 +1742,7 @@
         <v>1750000</v>
       </c>
       <c r="X17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="21:25" x14ac:dyDescent="0.25">
@@ -1522,7 +1764,7 @@
         <v>437.5</v>
       </c>
       <c r="Y20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="21:25" x14ac:dyDescent="0.25">
@@ -1536,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="21:25" x14ac:dyDescent="0.25">
